--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\Constant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96EC5A9-149A-4B69-A278-AF72D90662F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C17BDA-06C0-4F6E-96E0-AF8D57D92104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="33225" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,39 +442,60 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C17BDA-06C0-4F6E-96E0-AF8D57D92104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAD4FB-B50B-4013-871E-8BC44EFDB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33225" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>100002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>100003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>100004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>100005</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAD4FB-B50B-4013-871E-8BC44EFDB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D74BA5A-7917-4978-B052-94D7541C47BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="33030" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D74BA5A-7917-4978-B052-94D7541C47BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF3902-1F1A-483E-8D99-98811C8EACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33030" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="33825" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nameId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">default hp id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">default hp id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default mp id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,72 +465,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>100001</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>100002</v>
       </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>100003</v>
       </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>100004</v>
       </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
         <v>100005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF3902-1F1A-483E-8D99-98811C8EACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A6DB3C-5872-4DE3-B351-D72424575CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="29985" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>default mp id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default normal attack speed id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNormalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 == true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,22 +477,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,13 +504,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,13 +527,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -530,8 +555,14 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,13 +573,19 @@
         <v>100002</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -559,13 +596,19 @@
         <v>100003</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,13 +619,19 @@
         <v>100004</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -593,10 +642,16 @@
         <v>100005</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/__Project/Excel/ConstantTable/Unit.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A6DB3C-5872-4DE3-B351-D72424575CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E50C7-EE4B-4102-B3CA-CC97B9E3E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="31380" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>1 == true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default normal attack id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B2050-A0C3-4ED6-A914-8474FA4A2226}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,10 +494,11 @@
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +520,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +546,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -561,8 +572,11 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -584,8 +598,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -607,8 +624,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,8 +650,11 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -652,6 +675,9 @@
       </c>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
